--- a/input_data/USA/Filter_1992_Base.xlsx
+++ b/input_data/USA/Filter_1992_Base.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EE81EA-B8EE-49A9-82F2-A17E1F644EE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30645F55-04C2-4289-80F2-85CA3F9CA171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12228" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="587">
   <si>
     <t>Natural gas distribution</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>End-Use Category</t>
-  </si>
-  <si>
-    <t>Other buildungs</t>
   </si>
   <si>
     <t>Other new construction</t>
@@ -2673,27 +2670,27 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -2701,7 +2698,7 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -2709,7 +2706,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -2717,7 +2714,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -2725,7 +2722,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -2733,7 +2730,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2749,7 +2746,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -2761,11 +2758,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB487"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B239" sqref="B239:B254"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2804,10 +2801,10 @@
     </row>
     <row r="2" spans="1:28" ht="128.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>520</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>521</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>46</v>
@@ -2822,7 +2819,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>24</v>
@@ -2834,7 +2831,7 @@
         <v>31</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>47</v>
@@ -2882,10 +2879,10 @@
         <v>19</v>
       </c>
       <c r="AA2" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB2" s="20" t="s">
         <v>522</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -2893,7 +2890,7 @@
         <v>10100</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -2981,7 +2978,7 @@
         <v>10200</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -3069,7 +3066,7 @@
         <v>10301</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -3084,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -3157,7 +3154,7 @@
         <v>10302</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -3245,7 +3242,7 @@
         <v>20100</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -3260,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -3333,7 +3330,7 @@
         <v>20201</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -3421,7 +3418,7 @@
         <v>20202</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -3509,7 +3506,7 @@
         <v>20203</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -3597,7 +3594,7 @@
         <v>20300</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -3612,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -3685,7 +3682,7 @@
         <v>20401</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -3773,7 +3770,7 @@
         <v>20402</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -3861,7 +3858,7 @@
         <v>20501</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -3949,7 +3946,7 @@
         <v>20502</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -3964,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -4037,7 +4034,7 @@
         <v>20503</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -4125,7 +4122,7 @@
         <v>20600</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -4213,7 +4210,7 @@
         <v>20702</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -4301,7 +4298,7 @@
         <v>30001</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -4389,7 +4386,7 @@
         <v>30002</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -4477,7 +4474,7 @@
         <v>40001</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -4565,7 +4562,7 @@
         <v>40002</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -4653,7 +4650,7 @@
         <v>50001</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -4668,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -4741,7 +4738,7 @@
         <v>60100</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -4756,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -4829,7 +4826,7 @@
         <v>60200</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -4917,7 +4914,7 @@
         <v>70000</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -5005,7 +5002,7 @@
         <v>80001</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -5020,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -5093,7 +5090,7 @@
         <v>90001</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -5108,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -5181,7 +5178,7 @@
         <v>90002</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -5196,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -5269,7 +5266,7 @@
         <v>90003</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -5284,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -5357,7 +5354,7 @@
         <v>90004</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -5445,7 +5442,7 @@
         <v>100000</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -5533,7 +5530,7 @@
         <v>110101</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -5621,7 +5618,7 @@
         <v>110102</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -5709,7 +5706,7 @@
         <v>110105</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -5797,7 +5794,7 @@
         <v>110108</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -5885,7 +5882,7 @@
         <v>110400</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -5973,7 +5970,7 @@
         <v>110501</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -6061,7 +6058,7 @@
         <v>110601</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -6149,7 +6146,7 @@
         <v>110602</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -6237,7 +6234,7 @@
         <v>110603</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -6325,7 +6322,7 @@
         <v>110800</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -6413,7 +6410,7 @@
         <v>110900</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -6501,7 +6498,7 @@
         <v>120101</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -6589,7 +6586,7 @@
         <v>120214</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -6677,7 +6674,7 @@
         <v>120215</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -6692,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -6765,7 +6762,7 @@
         <v>120300</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -6853,7 +6850,7 @@
         <v>130100</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -6941,7 +6938,7 @@
         <v>130200</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -7029,7 +7026,7 @@
         <v>130300</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -7117,7 +7114,7 @@
         <v>130500</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -7205,7 +7202,7 @@
         <v>130600</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -7293,7 +7290,7 @@
         <v>130700</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -7381,7 +7378,7 @@
         <v>140101</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -7469,7 +7466,7 @@
         <v>140102</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -7557,7 +7554,7 @@
         <v>140105</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -7645,7 +7642,7 @@
         <v>140200</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -7733,7 +7730,7 @@
         <v>140300</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -7821,7 +7818,7 @@
         <v>140400</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -7909,7 +7906,7 @@
         <v>140500</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -7997,7 +7994,7 @@
         <v>140600</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -8085,7 +8082,7 @@
         <v>140700</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -8173,7 +8170,7 @@
         <v>140800</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -8261,7 +8258,7 @@
         <v>140900</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -8349,7 +8346,7 @@
         <v>141000</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -8437,7 +8434,7 @@
         <v>141100</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -8525,7 +8522,7 @@
         <v>141200</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -8613,7 +8610,7 @@
         <v>141301</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -8701,7 +8698,7 @@
         <v>141302</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -8789,7 +8786,7 @@
         <v>141401</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -8877,7 +8874,7 @@
         <v>141402</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -8965,7 +8962,7 @@
         <v>141403</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -9053,7 +9050,7 @@
         <v>141501</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -9141,7 +9138,7 @@
         <v>141502</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -9229,7 +9226,7 @@
         <v>141600</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -9405,7 +9402,7 @@
         <v>141801</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -9493,7 +9490,7 @@
         <v>141802</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -9581,7 +9578,7 @@
         <v>141803</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -9669,7 +9666,7 @@
         <v>141900</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -9757,7 +9754,7 @@
         <v>142002</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -9845,7 +9842,7 @@
         <v>142004</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -9933,7 +9930,7 @@
         <v>142005</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -10021,7 +10018,7 @@
         <v>142101</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -10109,7 +10106,7 @@
         <v>142102</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -10124,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H85" s="3">
         <v>1</v>
@@ -10197,7 +10194,7 @@
         <v>142103</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -10285,7 +10282,7 @@
         <v>142104</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -10373,7 +10370,7 @@
         <v>142200</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -10461,7 +10458,7 @@
         <v>142300</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -10549,7 +10546,7 @@
         <v>142400</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -10564,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
@@ -10637,7 +10634,7 @@
         <v>142500</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -10725,7 +10722,7 @@
         <v>142600</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -10813,7 +10810,7 @@
         <v>142700</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -10828,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H93" s="3">
         <v>1</v>
@@ -10901,7 +10898,7 @@
         <v>142800</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -10989,7 +10986,7 @@
         <v>142900</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -11077,7 +11074,7 @@
         <v>143000</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -11165,7 +11162,7 @@
         <v>143100</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -11253,7 +11250,7 @@
         <v>143201</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -11341,7 +11338,7 @@
         <v>143202</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -11429,7 +11426,7 @@
         <v>150101</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -11517,7 +11514,7 @@
         <v>150102</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -11605,7 +11602,7 @@
         <v>150103</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -11693,7 +11690,7 @@
         <v>150200</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -11708,7 +11705,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H103" s="3">
         <v>1</v>
@@ -11781,7 +11778,7 @@
         <v>160100</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -11869,7 +11866,7 @@
         <v>160200</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -11957,7 +11954,7 @@
         <v>160300</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -12045,7 +12042,7 @@
         <v>160400</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -12133,7 +12130,7 @@
         <v>170100</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -12221,7 +12218,7 @@
         <v>170600</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -12309,7 +12306,7 @@
         <v>170700</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -12324,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -12397,7 +12394,7 @@
         <v>170900</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -12485,7 +12482,7 @@
         <v>171001</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -12573,7 +12570,7 @@
         <v>171100</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -12661,7 +12658,7 @@
         <v>180101</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -12749,7 +12746,7 @@
         <v>180102</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -12925,7 +12922,7 @@
         <v>180400</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -13013,7 +13010,7 @@
         <v>190100</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -13101,7 +13098,7 @@
         <v>190200</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -13189,7 +13186,7 @@
         <v>190301</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -13277,7 +13274,7 @@
         <v>190302</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -13365,7 +13362,7 @@
         <v>190303</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -13453,7 +13450,7 @@
         <v>190304</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -13541,7 +13538,7 @@
         <v>190305</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -13629,7 +13626,7 @@
         <v>190306</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -13732,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -13805,7 +13802,7 @@
         <v>200200</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -13893,7 +13890,7 @@
         <v>200300</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -13981,7 +13978,7 @@
         <v>200400</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -14069,7 +14066,7 @@
         <v>200501</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -14084,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
@@ -14157,7 +14154,7 @@
         <v>200502</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -14172,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
@@ -14245,7 +14242,7 @@
         <v>200600</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -14333,7 +14330,7 @@
         <v>200701</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -14348,7 +14345,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
@@ -14421,7 +14418,7 @@
         <v>200702</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -14509,7 +14506,7 @@
         <v>200703</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -14597,7 +14594,7 @@
         <v>200800</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -14685,7 +14682,7 @@
         <v>200901</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -14773,7 +14770,7 @@
         <v>200903</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -14861,7 +14858,7 @@
         <v>200904</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -14949,7 +14946,7 @@
         <v>210000</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -15037,7 +15034,7 @@
         <v>220101</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -15125,7 +15122,7 @@
         <v>220102</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -15213,7 +15210,7 @@
         <v>220103</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -15301,7 +15298,7 @@
         <v>220200</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -15389,7 +15386,7 @@
         <v>220300</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -15477,7 +15474,7 @@
         <v>220400</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -15565,7 +15562,7 @@
         <v>230100</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -15653,7 +15650,7 @@
         <v>230200</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -15741,7 +15738,7 @@
         <v>230300</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -15829,7 +15826,7 @@
         <v>230400</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -15917,7 +15914,7 @@
         <v>230500</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -16005,7 +16002,7 @@
         <v>230600</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -16093,7 +16090,7 @@
         <v>230700</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -16269,7 +16266,7 @@
         <v>240400</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -16357,7 +16354,7 @@
         <v>240500</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -16445,7 +16442,7 @@
         <v>240701</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -16533,7 +16530,7 @@
         <v>240702</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -16621,7 +16618,7 @@
         <v>240703</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -16709,7 +16706,7 @@
         <v>240705</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -16797,7 +16794,7 @@
         <v>240706</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -16885,7 +16882,7 @@
         <v>240800</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -16973,7 +16970,7 @@
         <v>250000</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -17061,7 +17058,7 @@
         <v>260100</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -17149,7 +17146,7 @@
         <v>260200</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -17237,7 +17234,7 @@
         <v>260301</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -17325,7 +17322,7 @@
         <v>260302</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -17413,7 +17410,7 @@
         <v>260400</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -17501,7 +17498,7 @@
         <v>260501</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -17589,7 +17586,7 @@
         <v>260601</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -17677,7 +17674,7 @@
         <v>260602</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -17765,7 +17762,7 @@
         <v>260700</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -17853,7 +17850,7 @@
         <v>260802</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -17941,7 +17938,7 @@
         <v>260803</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -18029,7 +18026,7 @@
         <v>260806</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -18044,7 +18041,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H175" s="3">
         <v>0</v>
@@ -18117,7 +18114,7 @@
         <v>270100</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -18205,7 +18202,7 @@
         <v>270201</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -18293,7 +18290,7 @@
         <v>270300</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -18381,7 +18378,7 @@
         <v>270401</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -18469,7 +18466,7 @@
         <v>270402</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -18557,7 +18554,7 @@
         <v>270403</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -18645,7 +18642,7 @@
         <v>270404</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -18733,7 +18730,7 @@
         <v>270405</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -18748,7 +18745,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H183" s="3">
         <v>0</v>
@@ -18821,7 +18818,7 @@
         <v>270406</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -18909,7 +18906,7 @@
         <v>280100</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -18997,7 +18994,7 @@
         <v>280200</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -19085,7 +19082,7 @@
         <v>280300</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -19173,7 +19170,7 @@
         <v>280400</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -19261,7 +19258,7 @@
         <v>290100</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -19349,7 +19346,7 @@
         <v>290201</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -19437,7 +19434,7 @@
         <v>290202</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -19525,7 +19522,7 @@
         <v>290203</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -19613,7 +19610,7 @@
         <v>290300</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -19701,7 +19698,7 @@
         <v>300000</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -19789,7 +19786,7 @@
         <v>310101</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -19877,7 +19874,7 @@
         <v>310102</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -19965,7 +19962,7 @@
         <v>310103</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -20053,7 +20050,7 @@
         <v>310200</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -20141,7 +20138,7 @@
         <v>310300</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -20156,7 +20153,7 @@
         <v>0</v>
       </c>
       <c r="G199" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H199" s="3">
         <v>0</v>
@@ -20229,7 +20226,7 @@
         <v>320100</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -20317,7 +20314,7 @@
         <v>320200</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -20405,7 +20402,7 @@
         <v>320300</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -20493,7 +20490,7 @@
         <v>320400</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -20581,7 +20578,7 @@
         <v>320500</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -20669,7 +20666,7 @@
         <v>320600</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -20757,7 +20754,7 @@
         <v>330001</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -20845,7 +20842,7 @@
         <v>340100</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -20933,7 +20930,7 @@
         <v>340201</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -21021,7 +21018,7 @@
         <v>340202</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -21109,7 +21106,7 @@
         <v>340301</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -21197,7 +21194,7 @@
         <v>340302</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -21285,7 +21282,7 @@
         <v>340303</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
@@ -21373,7 +21370,7 @@
         <v>340304</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -21461,7 +21458,7 @@
         <v>340305</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -21549,7 +21546,7 @@
         <v>350100</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -21637,7 +21634,7 @@
         <v>350200</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -21725,7 +21722,7 @@
         <v>360100</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -21740,7 +21737,7 @@
         <v>0</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H217" s="3">
         <v>0</v>
@@ -21813,7 +21810,7 @@
         <v>360200</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -21828,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="G218" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H218" s="3">
         <v>0</v>
@@ -21901,7 +21898,7 @@
         <v>360300</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C219" s="2">
         <v>0</v>
@@ -21916,7 +21913,7 @@
         <v>0</v>
       </c>
       <c r="G219" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H219" s="3">
         <v>0</v>
@@ -21989,7 +21986,7 @@
         <v>360400</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -22004,7 +22001,7 @@
         <v>1</v>
       </c>
       <c r="G220" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H220" s="3">
         <v>0</v>
@@ -22077,7 +22074,7 @@
         <v>360500</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C221" s="2">
         <v>0</v>
@@ -22092,7 +22089,7 @@
         <v>1</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H221" s="3">
         <v>0</v>
@@ -22165,7 +22162,7 @@
         <v>360600</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
@@ -22180,7 +22177,7 @@
         <v>1</v>
       </c>
       <c r="G222" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H222" s="3">
         <v>0</v>
@@ -22253,7 +22250,7 @@
         <v>360701</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C223" s="2">
         <v>0</v>
@@ -22341,7 +22338,7 @@
         <v>360702</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C224" s="2">
         <v>0</v>
@@ -22429,7 +22426,7 @@
         <v>360800</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C225" s="2">
         <v>0</v>
@@ -22517,7 +22514,7 @@
         <v>360900</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C226" s="2">
         <v>0</v>
@@ -22605,7 +22602,7 @@
         <v>361000</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C227" s="2">
         <v>0</v>
@@ -22620,7 +22617,7 @@
         <v>1</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H227" s="3">
         <v>0</v>
@@ -22693,7 +22690,7 @@
         <v>361100</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
@@ -22781,7 +22778,7 @@
         <v>361200</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C229" s="2">
         <v>0</v>
@@ -22796,7 +22793,7 @@
         <v>1</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H229" s="3">
         <v>0</v>
@@ -22869,7 +22866,7 @@
         <v>361300</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C230" s="2">
         <v>0</v>
@@ -22957,7 +22954,7 @@
         <v>361400</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C231" s="2">
         <v>0</v>
@@ -23045,7 +23042,7 @@
         <v>361500</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
@@ -23133,7 +23130,7 @@
         <v>361600</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -23221,7 +23218,7 @@
         <v>361700</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C234" s="2">
         <v>0</v>
@@ -23309,7 +23306,7 @@
         <v>361900</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C235" s="2">
         <v>0</v>
@@ -23397,7 +23394,7 @@
         <v>362000</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C236" s="2">
         <v>0</v>
@@ -23485,7 +23482,7 @@
         <v>362100</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C237" s="2">
         <v>0</v>
@@ -23500,7 +23497,7 @@
         <v>1</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H237" s="3">
         <v>0</v>
@@ -23573,7 +23570,7 @@
         <v>362200</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C238" s="2">
         <v>0</v>
@@ -23661,7 +23658,7 @@
         <v>370101</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C239" s="2">
         <v>0</v>
@@ -23749,7 +23746,7 @@
         <v>370102</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C240" s="2">
         <v>0</v>
@@ -23764,7 +23761,7 @@
         <v>1</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H240" s="3">
         <v>0</v>
@@ -23837,7 +23834,7 @@
         <v>370103</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C241" s="2">
         <v>0</v>
@@ -23925,7 +23922,7 @@
         <v>370200</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C242" s="2">
         <v>0</v>
@@ -24013,7 +24010,7 @@
         <v>370300</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C243" s="2">
         <v>0</v>
@@ -24101,7 +24098,7 @@
         <v>370401</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C244" s="2">
         <v>0</v>
@@ -24189,7 +24186,7 @@
         <v>370402</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C245" s="2">
         <v>0</v>
@@ -24365,7 +24362,7 @@
         <v>380400</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C247" s="2">
         <v>0</v>
@@ -24453,7 +24450,7 @@
         <v>380501</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C248" s="2">
         <v>0</v>
@@ -24468,7 +24465,7 @@
         <v>0</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H248" s="3">
         <v>0</v>
@@ -24541,7 +24538,7 @@
         <v>380700</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C249" s="2">
         <v>0</v>
@@ -24629,7 +24626,7 @@
         <v>380800</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C250" s="2">
         <v>0</v>
@@ -24717,7 +24714,7 @@
         <v>380900</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C251" s="2">
         <v>0</v>
@@ -24732,7 +24729,7 @@
         <v>1</v>
       </c>
       <c r="G251" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H251" s="3">
         <v>0</v>
@@ -24805,7 +24802,7 @@
         <v>381000</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C252" s="2">
         <v>0</v>
@@ -24893,7 +24890,7 @@
         <v>381100</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C253" s="2">
         <v>0</v>
@@ -24981,7 +24978,7 @@
         <v>381400</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C254" s="2">
         <v>0</v>
@@ -25069,7 +25066,7 @@
         <v>390100</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C255" s="2">
         <v>0</v>
@@ -25157,7 +25154,7 @@
         <v>390200</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C256" s="2">
         <v>0</v>
@@ -25245,7 +25242,7 @@
         <v>400100</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C257" s="2">
         <v>0</v>
@@ -25260,7 +25257,7 @@
         <v>1</v>
       </c>
       <c r="G257" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H257" s="3">
         <v>0</v>
@@ -25333,7 +25330,7 @@
         <v>400200</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C258" s="2">
         <v>0</v>
@@ -25348,7 +25345,7 @@
         <v>1</v>
       </c>
       <c r="G258" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H258" s="3">
         <v>0</v>
@@ -25421,7 +25418,7 @@
         <v>400300</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C259" s="2">
         <v>0</v>
@@ -25509,7 +25506,7 @@
         <v>400400</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C260" s="2">
         <v>0</v>
@@ -25597,7 +25594,7 @@
         <v>400500</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C261" s="2">
         <v>0</v>
@@ -25685,7 +25682,7 @@
         <v>400600</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C262" s="2">
         <v>0</v>
@@ -25773,7 +25770,7 @@
         <v>400700</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C263" s="2">
         <v>0</v>
@@ -25861,7 +25858,7 @@
         <v>400800</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C264" s="2">
         <v>0</v>
@@ -25949,7 +25946,7 @@
         <v>400901</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C265" s="2">
         <v>0</v>
@@ -26037,7 +26034,7 @@
         <v>400902</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C266" s="2">
         <v>0</v>
@@ -26125,7 +26122,7 @@
         <v>410100</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C267" s="2">
         <v>0</v>
@@ -26213,7 +26210,7 @@
         <v>410201</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C268" s="2">
         <v>0</v>
@@ -26301,7 +26298,7 @@
         <v>410202</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C269" s="2">
         <v>0</v>
@@ -26389,7 +26386,7 @@
         <v>410203</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C270" s="2">
         <v>0</v>
@@ -26477,7 +26474,7 @@
         <v>420100</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C271" s="2">
         <v>0</v>
@@ -26565,7 +26562,7 @@
         <v>420201</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C272" s="2">
         <v>0</v>
@@ -26653,7 +26650,7 @@
         <v>420202</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C273" s="2">
         <v>0</v>
@@ -26741,7 +26738,7 @@
         <v>420300</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C274" s="2">
         <v>0</v>
@@ -26829,7 +26826,7 @@
         <v>420401</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C275" s="2">
         <v>0</v>
@@ -26844,7 +26841,7 @@
         <v>1</v>
       </c>
       <c r="G275" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H275" s="3">
         <v>0</v>
@@ -26917,7 +26914,7 @@
         <v>420402</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C276" s="2">
         <v>0</v>
@@ -26932,7 +26929,7 @@
         <v>1</v>
       </c>
       <c r="G276" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H276" s="3">
         <v>0</v>
@@ -27005,7 +27002,7 @@
         <v>420500</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C277" s="2">
         <v>0</v>
@@ -27093,7 +27090,7 @@
         <v>420700</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C278" s="2">
         <v>0</v>
@@ -27181,7 +27178,7 @@
         <v>420800</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C279" s="2">
         <v>0</v>
@@ -27269,7 +27266,7 @@
         <v>421000</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C280" s="2">
         <v>0</v>
@@ -27357,7 +27354,7 @@
         <v>421100</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C281" s="2">
         <v>0</v>
@@ -27445,7 +27442,7 @@
         <v>430100</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C282" s="2">
         <v>0</v>
@@ -27533,7 +27530,7 @@
         <v>430200</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C283" s="2">
         <v>0</v>
@@ -27621,7 +27618,7 @@
         <v>440001</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C284" s="2">
         <v>0</v>
@@ -27709,7 +27706,7 @@
         <v>440002</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C285" s="2">
         <v>0</v>
@@ -27797,7 +27794,7 @@
         <v>450100</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C286" s="2">
         <v>0</v>
@@ -27885,7 +27882,7 @@
         <v>450200</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C287" s="2">
         <v>0</v>
@@ -27973,7 +27970,7 @@
         <v>450300</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C288" s="2">
         <v>0</v>
@@ -28061,7 +28058,7 @@
         <v>460100</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C289" s="2">
         <v>0</v>
@@ -28076,7 +28073,7 @@
         <v>1</v>
       </c>
       <c r="G289" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H289" s="3">
         <v>0</v>
@@ -28149,7 +28146,7 @@
         <v>460200</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C290" s="2">
         <v>0</v>
@@ -28237,7 +28234,7 @@
         <v>460300</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C291" s="2">
         <v>0</v>
@@ -28325,7 +28322,7 @@
         <v>460400</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C292" s="2">
         <v>0</v>
@@ -28413,7 +28410,7 @@
         <v>470100</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C293" s="2">
         <v>0</v>
@@ -28501,7 +28498,7 @@
         <v>470200</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C294" s="2">
         <v>0</v>
@@ -28589,7 +28586,7 @@
         <v>470300</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C295" s="2">
         <v>0</v>
@@ -28677,7 +28674,7 @@
         <v>470401</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C296" s="2">
         <v>0</v>
@@ -28765,7 +28762,7 @@
         <v>470402</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C297" s="2">
         <v>0</v>
@@ -28853,7 +28850,7 @@
         <v>470404</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C298" s="2">
         <v>0</v>
@@ -28941,7 +28938,7 @@
         <v>470405</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C299" s="2">
         <v>0</v>
@@ -28956,7 +28953,7 @@
         <v>1</v>
       </c>
       <c r="G299" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H299" s="3">
         <v>0</v>
@@ -29029,7 +29026,7 @@
         <v>470500</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C300" s="2">
         <v>0</v>
@@ -29117,7 +29114,7 @@
         <v>480100</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C301" s="2">
         <v>0</v>
@@ -29205,7 +29202,7 @@
         <v>480200</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C302" s="2">
         <v>0</v>
@@ -29293,7 +29290,7 @@
         <v>480300</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C303" s="2">
         <v>0</v>
@@ -29381,7 +29378,7 @@
         <v>480400</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C304" s="2">
         <v>0</v>
@@ -29469,7 +29466,7 @@
         <v>480500</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C305" s="2">
         <v>0</v>
@@ -29557,7 +29554,7 @@
         <v>480600</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C306" s="2">
         <v>0</v>
@@ -29645,7 +29642,7 @@
         <v>490100</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C307" s="2">
         <v>0</v>
@@ -29733,7 +29730,7 @@
         <v>490200</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C308" s="2">
         <v>0</v>
@@ -29821,7 +29818,7 @@
         <v>490300</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C309" s="2">
         <v>0</v>
@@ -29909,7 +29906,7 @@
         <v>490500</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C310" s="2">
         <v>0</v>
@@ -29997,7 +29994,7 @@
         <v>490600</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C311" s="2">
         <v>0</v>
@@ -30085,7 +30082,7 @@
         <v>490700</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C312" s="2">
         <v>0</v>
@@ -30173,7 +30170,7 @@
         <v>490800</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C313" s="2">
         <v>0</v>
@@ -30261,7 +30258,7 @@
         <v>500100</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C314" s="2">
         <v>0</v>
@@ -30349,7 +30346,7 @@
         <v>500200</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C315" s="2">
         <v>0</v>
@@ -30437,7 +30434,7 @@
         <v>500300</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C316" s="2">
         <v>0</v>
@@ -30525,7 +30522,7 @@
         <v>500400</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C317" s="2">
         <v>0</v>
@@ -30613,7 +30610,7 @@
         <v>510102</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C318" s="2">
         <v>0</v>
@@ -30701,7 +30698,7 @@
         <v>510103</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C319" s="2">
         <v>0</v>
@@ -30789,7 +30786,7 @@
         <v>510104</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C320" s="2">
         <v>0</v>
@@ -30877,7 +30874,7 @@
         <v>510400</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C321" s="2">
         <v>0</v>
@@ -30965,7 +30962,7 @@
         <v>520100</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C322" s="2">
         <v>0</v>
@@ -31053,7 +31050,7 @@
         <v>520200</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C323" s="2">
         <v>0</v>
@@ -31141,7 +31138,7 @@
         <v>520300</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C324" s="2">
         <v>0</v>
@@ -31229,7 +31226,7 @@
         <v>520400</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C325" s="2">
         <v>0</v>
@@ -31317,7 +31314,7 @@
         <v>520500</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C326" s="2">
         <v>0</v>
@@ -31405,7 +31402,7 @@
         <v>530200</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C327" s="2">
         <v>0</v>
@@ -31493,7 +31490,7 @@
         <v>530300</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C328" s="2">
         <v>0</v>
@@ -31581,7 +31578,7 @@
         <v>530400</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C329" s="2">
         <v>0</v>
@@ -31669,7 +31666,7 @@
         <v>530500</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C330" s="2">
         <v>0</v>
@@ -31757,7 +31754,7 @@
         <v>530700</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C331" s="2">
         <v>0</v>
@@ -31845,7 +31842,7 @@
         <v>530800</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C332" s="2">
         <v>0</v>
@@ -31933,7 +31930,7 @@
         <v>540100</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C333" s="2">
         <v>0</v>
@@ -32021,7 +32018,7 @@
         <v>540200</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C334" s="2">
         <v>0</v>
@@ -32109,7 +32106,7 @@
         <v>540300</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C335" s="2">
         <v>0</v>
@@ -32197,7 +32194,7 @@
         <v>540400</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C336" s="2">
         <v>0</v>
@@ -32285,7 +32282,7 @@
         <v>540500</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C337" s="2">
         <v>0</v>
@@ -32373,7 +32370,7 @@
         <v>540700</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C338" s="2">
         <v>0</v>
@@ -32461,7 +32458,7 @@
         <v>550100</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C339" s="2">
         <v>0</v>
@@ -32549,7 +32546,7 @@
         <v>550200</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C340" s="2">
         <v>0</v>
@@ -32637,7 +32634,7 @@
         <v>550300</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C341" s="2">
         <v>0</v>
@@ -32725,7 +32722,7 @@
         <v>560100</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C342" s="2">
         <v>0</v>
@@ -32813,7 +32810,7 @@
         <v>560200</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C343" s="2">
         <v>0</v>
@@ -32901,7 +32898,7 @@
         <v>560300</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C344" s="2">
         <v>0</v>
@@ -32989,7 +32986,7 @@
         <v>560500</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C345" s="2">
         <v>0</v>
@@ -33077,7 +33074,7 @@
         <v>570100</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C346" s="2">
         <v>0</v>
@@ -33165,7 +33162,7 @@
         <v>570200</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C347" s="2">
         <v>0</v>
@@ -33253,7 +33250,7 @@
         <v>570300</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C348" s="2">
         <v>0</v>
@@ -33341,7 +33338,7 @@
         <v>580100</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C349" s="2">
         <v>0</v>
@@ -33429,7 +33426,7 @@
         <v>580200</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C350" s="2">
         <v>0</v>
@@ -33517,7 +33514,7 @@
         <v>580400</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C351" s="2">
         <v>0</v>
@@ -33605,7 +33602,7 @@
         <v>580600</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C352" s="2">
         <v>0</v>
@@ -33693,7 +33690,7 @@
         <v>580700</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C353" s="2">
         <v>0</v>
@@ -33781,7 +33778,7 @@
         <v>590100</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C354" s="2">
         <v>0</v>
@@ -33869,7 +33866,7 @@
         <v>590200</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C355" s="2">
         <v>0</v>
@@ -33957,7 +33954,7 @@
         <v>590301</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C356" s="2">
         <v>0</v>
@@ -34045,7 +34042,7 @@
         <v>590302</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C357" s="2">
         <v>0</v>
@@ -34133,7 +34130,7 @@
         <v>600100</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C358" s="2">
         <v>0</v>
@@ -34221,7 +34218,7 @@
         <v>600200</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C359" s="2">
         <v>0</v>
@@ -34309,7 +34306,7 @@
         <v>600400</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C360" s="2">
         <v>0</v>
@@ -34485,7 +34482,7 @@
         <v>610200</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C362" s="2">
         <v>0</v>
@@ -34573,7 +34570,7 @@
         <v>610300</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C363" s="2">
         <v>0</v>
@@ -34661,7 +34658,7 @@
         <v>610500</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C364" s="2">
         <v>0</v>
@@ -34749,7 +34746,7 @@
         <v>610601</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C365" s="2">
         <v>0</v>
@@ -34837,7 +34834,7 @@
         <v>610603</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C366" s="2">
         <v>0</v>
@@ -34925,7 +34922,7 @@
         <v>610700</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C367" s="2">
         <v>0</v>
@@ -35013,7 +35010,7 @@
         <v>620101</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C368" s="2">
         <v>0</v>
@@ -35101,7 +35098,7 @@
         <v>620102</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C369" s="2">
         <v>0</v>
@@ -35189,7 +35186,7 @@
         <v>620200</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C370" s="2">
         <v>0</v>
@@ -35277,7 +35274,7 @@
         <v>620300</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C371" s="2">
         <v>0</v>
@@ -35365,7 +35362,7 @@
         <v>620400</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C372" s="2">
         <v>0</v>
@@ -35453,7 +35450,7 @@
         <v>620500</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C373" s="2">
         <v>0</v>
@@ -35541,7 +35538,7 @@
         <v>620600</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C374" s="2">
         <v>0</v>
@@ -35629,7 +35626,7 @@
         <v>620700</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C375" s="2">
         <v>0</v>
@@ -35717,7 +35714,7 @@
         <v>620800</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C376" s="2">
         <v>0</v>
@@ -35805,7 +35802,7 @@
         <v>620900</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C377" s="2">
         <v>0</v>
@@ -35893,7 +35890,7 @@
         <v>621000</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C378" s="2">
         <v>0</v>
@@ -35981,7 +35978,7 @@
         <v>621100</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C379" s="2">
         <v>0</v>
@@ -36069,7 +36066,7 @@
         <v>630200</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C380" s="2">
         <v>0</v>
@@ -36157,7 +36154,7 @@
         <v>630300</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C381" s="2">
         <v>0</v>
@@ -36245,7 +36242,7 @@
         <v>640101</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C382" s="2">
         <v>0</v>
@@ -36333,7 +36330,7 @@
         <v>640102</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C383" s="2">
         <v>0</v>
@@ -36421,7 +36418,7 @@
         <v>640104</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C384" s="2">
         <v>0</v>
@@ -36509,7 +36506,7 @@
         <v>640105</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C385" s="2">
         <v>0</v>
@@ -36597,7 +36594,7 @@
         <v>640200</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C386" s="2">
         <v>0</v>
@@ -36685,7 +36682,7 @@
         <v>640301</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C387" s="2">
         <v>0</v>
@@ -36773,7 +36770,7 @@
         <v>640302</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C388" s="2">
         <v>0</v>
@@ -36861,7 +36858,7 @@
         <v>640400</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C389" s="2">
         <v>0</v>
@@ -36949,7 +36946,7 @@
         <v>640501</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C390" s="2">
         <v>0</v>
@@ -37037,7 +37034,7 @@
         <v>640502</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C391" s="2">
         <v>0</v>
@@ -37125,7 +37122,7 @@
         <v>640503</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C392" s="2">
         <v>0</v>
@@ -37213,7 +37210,7 @@
         <v>640504</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C393" s="2">
         <v>0</v>
@@ -37301,7 +37298,7 @@
         <v>640700</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C394" s="2">
         <v>0</v>
@@ -37389,7 +37386,7 @@
         <v>640800</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C395" s="2">
         <v>0</v>
@@ -37477,7 +37474,7 @@
         <v>640900</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C396" s="2">
         <v>0</v>
@@ -37492,7 +37489,7 @@
         <v>1</v>
       </c>
       <c r="G396" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H396" s="3">
         <v>0</v>
@@ -37565,7 +37562,7 @@
         <v>641000</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C397" s="2">
         <v>0</v>
@@ -37580,7 +37577,7 @@
         <v>1</v>
       </c>
       <c r="G397" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H397" s="3">
         <v>0</v>
@@ -37653,7 +37650,7 @@
         <v>641100</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C398" s="2">
         <v>0</v>
@@ -37741,7 +37738,7 @@
         <v>641200</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C399" s="2">
         <v>0</v>
@@ -37829,7 +37826,7 @@
         <v>650100</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C400" s="2">
         <v>0</v>
@@ -37917,7 +37914,7 @@
         <v>650200</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C401" s="2">
         <v>0</v>
@@ -38005,7 +38002,7 @@
         <v>650301</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C402" s="2">
         <v>0</v>
@@ -38357,7 +38354,7 @@
         <v>650600</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C406" s="2">
         <v>0</v>
@@ -38445,7 +38442,7 @@
         <v>650701</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C407" s="2">
         <v>0</v>
@@ -38460,7 +38457,7 @@
         <v>0</v>
       </c>
       <c r="G407" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H407" s="3">
         <v>0</v>
@@ -38533,7 +38530,7 @@
         <v>650702</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C408" s="2">
         <v>0</v>
@@ -38621,7 +38618,7 @@
         <v>660100</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C409" s="2">
         <v>0</v>
@@ -38709,7 +38706,7 @@
         <v>660200</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C410" s="2">
         <v>0</v>
@@ -38797,7 +38794,7 @@
         <v>670000</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C411" s="2">
         <v>0</v>
@@ -38885,7 +38882,7 @@
         <v>680100</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C412" s="2">
         <v>0</v>
@@ -38973,7 +38970,7 @@
         <v>680201</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C413" s="2">
         <v>0</v>
@@ -38988,7 +38985,7 @@
         <v>0</v>
       </c>
       <c r="G413" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H413" s="3">
         <v>0</v>
@@ -39149,7 +39146,7 @@
         <v>680301</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C415" s="2">
         <v>0</v>
@@ -39237,7 +39234,7 @@
         <v>680302</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C416" s="2">
         <v>0</v>
@@ -39413,7 +39410,7 @@
         <v>690200</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C418" s="2">
         <v>0</v>
@@ -39501,7 +39498,7 @@
         <v>700100</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C419" s="2">
         <v>0</v>
@@ -39589,7 +39586,7 @@
         <v>700200</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C420" s="2">
         <v>0</v>
@@ -39677,7 +39674,7 @@
         <v>700300</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C421" s="2">
         <v>0</v>
@@ -39853,7 +39850,7 @@
         <v>700500</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C423" s="2">
         <v>0</v>
@@ -40027,7 +40024,7 @@
         <v>710201</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C425" s="2">
         <v>0</v>
@@ -40115,7 +40112,7 @@
         <v>710202</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C426" s="2">
         <v>0</v>
@@ -40203,7 +40200,7 @@
         <v>720101</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C427" s="2">
         <v>0</v>
@@ -40291,7 +40288,7 @@
         <v>720102</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C428" s="2">
         <v>0</v>
@@ -40379,7 +40376,7 @@
         <v>720201</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C429" s="2">
         <v>0</v>
@@ -40467,7 +40464,7 @@
         <v>720202</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C430" s="2">
         <v>0</v>
@@ -40555,7 +40552,7 @@
         <v>720203</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C431" s="2">
         <v>0</v>
@@ -40643,7 +40640,7 @@
         <v>720204</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C432" s="2">
         <v>0</v>
@@ -40731,7 +40728,7 @@
         <v>720205</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C433" s="2">
         <v>0</v>
@@ -40819,7 +40816,7 @@
         <v>720300</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C434" s="2">
         <v>0</v>
@@ -40907,7 +40904,7 @@
         <v>730101</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C435" s="2">
         <v>0</v>
@@ -40995,7 +40992,7 @@
         <v>730102</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C436" s="2">
         <v>0</v>
@@ -41083,7 +41080,7 @@
         <v>730103</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C437" s="2">
         <v>0</v>
@@ -41171,7 +41168,7 @@
         <v>730104</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C438" s="2">
         <v>0</v>
@@ -41259,7 +41256,7 @@
         <v>730106</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C439" s="2">
         <v>0</v>
@@ -41347,7 +41344,7 @@
         <v>730107</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C440" s="2">
         <v>0</v>
@@ -41435,7 +41432,7 @@
         <v>730108</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C441" s="2">
         <v>0</v>
@@ -41523,7 +41520,7 @@
         <v>730109</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C442" s="2">
         <v>0</v>
@@ -41611,7 +41608,7 @@
         <v>730111</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C443" s="2">
         <v>0</v>
@@ -41699,7 +41696,7 @@
         <v>730112</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C444" s="2">
         <v>0</v>
@@ -41787,7 +41784,7 @@
         <v>730200</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C445" s="2">
         <v>0</v>
@@ -41963,7 +41960,7 @@
         <v>730302</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C447" s="2">
         <v>0</v>
@@ -42051,7 +42048,7 @@
         <v>730303</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C448" s="2">
         <v>0</v>
@@ -42139,7 +42136,7 @@
         <v>740000</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C449" s="2">
         <v>0</v>
@@ -42227,7 +42224,7 @@
         <v>750001</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C450" s="2">
         <v>0</v>
@@ -42315,7 +42312,7 @@
         <v>750002</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C451" s="2">
         <v>0</v>
@@ -42403,7 +42400,7 @@
         <v>750003</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C452" s="2">
         <v>0</v>
@@ -42491,7 +42488,7 @@
         <v>760101</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C453" s="2">
         <v>0</v>
@@ -42579,7 +42576,7 @@
         <v>760102</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C454" s="2">
         <v>0</v>
@@ -42667,7 +42664,7 @@
         <v>760201</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C455" s="2">
         <v>0</v>
@@ -42843,7 +42840,7 @@
         <v>760203</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C457" s="2">
         <v>0</v>
@@ -42931,7 +42928,7 @@
         <v>760204</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C458" s="2">
         <v>0</v>
@@ -43019,7 +43016,7 @@
         <v>760205</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C459" s="2">
         <v>0</v>
@@ -43107,7 +43104,7 @@
         <v>760206</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C460" s="2">
         <v>0</v>
@@ -43195,7 +43192,7 @@
         <v>770100</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C461" s="2">
         <v>0</v>
@@ -43371,7 +43368,7 @@
         <v>770301</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C463" s="2">
         <v>0</v>
@@ -43459,7 +43456,7 @@
         <v>770303</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C464" s="2">
         <v>0</v>
@@ -43635,7 +43632,7 @@
         <v>770305</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C466" s="2">
         <v>0</v>
@@ -43811,7 +43808,7 @@
         <v>770402</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C468" s="2">
         <v>0</v>
@@ -43899,7 +43896,7 @@
         <v>770403</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C469" s="2">
         <v>0</v>
@@ -43987,7 +43984,7 @@
         <v>770501</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C470" s="2">
         <v>0</v>
@@ -44075,7 +44072,7 @@
         <v>770502</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C471" s="2">
         <v>0</v>
@@ -44251,7 +44248,7 @@
         <v>770504</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C473" s="2">
         <v>0</v>
@@ -44339,7 +44336,7 @@
         <v>770600</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C474" s="2">
         <v>0</v>
@@ -44515,7 +44512,7 @@
         <v>770800</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C476" s="2">
         <v>0</v>
@@ -44603,7 +44600,7 @@
         <v>770900</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C477" s="2">
         <v>0</v>
@@ -44691,7 +44688,7 @@
         <v>780100</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C478" s="2">
         <v>0</v>
@@ -44865,7 +44862,7 @@
         <v>790300</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C480" s="2">
         <v>0</v>
@@ -45056,7 +45053,7 @@
         <v>0</v>
       </c>
       <c r="G482" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H482" s="3">
         <v>0</v>
@@ -45144,7 +45141,7 @@
         <v>0</v>
       </c>
       <c r="G483" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H483" s="3">
         <v>0</v>
@@ -45217,7 +45214,7 @@
         <v>820000</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C484" s="2">
         <v>0</v>
@@ -45305,7 +45302,7 @@
         <v>830001</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C485" s="2">
         <v>0</v>
@@ -45391,7 +45388,7 @@
         <v>840000</v>
       </c>
       <c r="B486" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C486" s="2">
         <v>0</v>
@@ -45479,7 +45476,7 @@
         <v>850000</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C487" s="21">
         <v>0</v>
@@ -45898,7 +45895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B80FB9-32E4-4E2C-A247-3C0F9D039F5D}">
   <dimension ref="A2:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -45910,102 +45907,102 @@
   <sheetData>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D6" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="G6" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="H6" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="I6" s="27" t="s">
         <v>533</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="J6" s="27" t="s">
         <v>534</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="K6" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="L6" s="27" t="s">
         <v>536</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="M6" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="N6" s="27" t="s">
         <v>538</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="O6" s="27" t="s">
         <v>539</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="P6" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="Q6" s="28" t="s">
         <v>541</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D7" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="F7" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="G7" s="27" t="s">
         <v>545</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="H7" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="I7" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="J7" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="K7" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="L7" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="M7" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="N7" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="O7" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="P7" s="27" t="s">
         <v>554</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="Q7" s="28" t="s">
         <v>555</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -46013,10 +46010,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D8" s="30">
         <v>0</v>
@@ -46066,10 +46063,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>557</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>558</v>
       </c>
       <c r="D9" s="35">
         <v>0.85</v>
@@ -46119,10 +46116,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>559</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>560</v>
       </c>
       <c r="D10" s="39">
         <v>0</v>
@@ -46172,10 +46169,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>561</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>562</v>
       </c>
       <c r="D11" s="39">
         <v>0</v>
@@ -46222,10 +46219,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B12" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>563</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>564</v>
       </c>
       <c r="D12" s="39">
         <v>0</v>
@@ -46275,10 +46272,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>565</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>566</v>
       </c>
       <c r="D13" s="39">
         <v>0</v>
@@ -46328,10 +46325,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="C14" s="41" t="s">
         <v>567</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>568</v>
       </c>
       <c r="D14" s="39">
         <v>0</v>
@@ -46381,10 +46378,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="C15" s="41" t="s">
         <v>569</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>570</v>
       </c>
       <c r="D15" s="39">
         <v>0</v>
@@ -46434,10 +46431,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>571</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>572</v>
       </c>
       <c r="D16" s="39">
         <v>0</v>
@@ -46487,10 +46484,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>573</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>574</v>
       </c>
       <c r="D17" s="39">
         <v>0</v>
@@ -46540,10 +46537,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>575</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>576</v>
       </c>
       <c r="D18" s="39">
         <v>0</v>
@@ -46593,10 +46590,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>577</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>578</v>
       </c>
       <c r="D19" s="39">
         <v>0</v>
@@ -46646,10 +46643,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D20" s="39">
         <v>0</v>
@@ -46720,10 +46717,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D22" s="44">
         <v>0</v>
@@ -46773,10 +46770,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D23" s="44">
         <v>0</v>
@@ -46826,10 +46823,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D24" s="44">
         <v>0</v>
@@ -46879,10 +46876,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D25" s="44">
         <v>0</v>
@@ -46932,10 +46929,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D26" s="44">
         <v>0</v>
@@ -46985,10 +46982,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D27" s="44">
         <v>0</v>
@@ -47038,10 +47035,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D28" s="44">
         <v>0</v>
@@ -47091,10 +47088,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D29" s="47">
         <v>0</v>
@@ -47154,12 +47151,12 @@
     </row>
     <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D34" s="63" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E34" s="63"/>
       <c r="F34" s="63"/>
@@ -47178,7 +47175,7 @@
         <v>15</v>
       </c>
       <c r="M34" s="63" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N34" s="63"/>
       <c r="O34" s="63"/>
@@ -47188,7 +47185,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D35" t="s">
         <v>30</v>
@@ -47197,7 +47194,7 @@
         <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G35" t="s">
         <v>47</v>
@@ -47247,7 +47244,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B36">
         <v>200100</v>
@@ -47285,13 +47282,13 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B37">
         <v>200200</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D37" s="55"/>
       <c r="E37" s="56"/>
@@ -47323,13 +47320,13 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B38">
         <v>200300</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="56"/>
@@ -47361,13 +47358,13 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B39">
         <v>200400</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="56"/>
@@ -47399,13 +47396,13 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B40">
         <v>200501</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40" s="55"/>
       <c r="E40" s="56"/>
@@ -47437,13 +47434,13 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B41">
         <v>200600</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="55"/>
       <c r="E41" s="56"/>
@@ -47475,13 +47472,13 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B42">
         <v>200701</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D42" s="55"/>
       <c r="E42" s="56"/>
@@ -47513,13 +47510,13 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B43">
         <v>200800</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="56"/>
@@ -47551,13 +47548,13 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B44">
         <v>200903</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D44" s="55"/>
       <c r="E44" s="56"/>
@@ -47589,13 +47586,13 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B45">
         <v>200904</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D45" s="55"/>
       <c r="E45" s="56"/>
@@ -47627,13 +47624,13 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="40" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B46">
         <v>350100</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D46" s="55"/>
       <c r="E46" s="56"/>
@@ -47677,13 +47674,13 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="40" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B47">
         <v>350200</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D47" s="55"/>
       <c r="E47" s="56"/>
@@ -47727,13 +47724,13 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B48">
         <v>370101</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D48" s="55">
         <f>$Q$13</f>
@@ -47792,13 +47789,13 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B49">
         <v>370200</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D49" s="55">
         <f>$Q$13</f>
@@ -47857,13 +47854,13 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B50">
         <v>370300</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D50" s="55">
         <f>$Q$13</f>
@@ -47922,13 +47919,13 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B51">
         <v>380400</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D51" s="55">
         <f>$Q$15</f>
@@ -47987,13 +47984,13 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B52">
         <v>381100</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D52" s="55">
         <f>$Q$15</f>
@@ -48052,13 +48049,13 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B53">
         <v>380800</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D53" s="55">
         <f>$Q$15</f>
@@ -48117,7 +48114,7 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B54">
         <v>380100</v>
@@ -48182,13 +48179,13 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B55">
         <v>380700</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D55" s="55">
         <f>$Q$17</f>
@@ -48247,13 +48244,13 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B56">
         <v>370102</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D56" s="55"/>
       <c r="E56" s="56"/>
@@ -48276,13 +48273,13 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B57">
         <v>381400</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D57" s="55">
         <f>$Q$18</f>
@@ -48341,13 +48338,13 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B58">
         <v>380900</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D58" s="55">
         <f>$Q$18</f>
@@ -48406,13 +48403,13 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B59">
         <v>381000</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D59" s="55">
         <f>$Q$18</f>
@@ -48471,13 +48468,13 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B60">
         <v>380501</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D60" s="55">
         <f>$Q$18</f>
@@ -48536,13 +48533,13 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B61">
         <v>370401</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="55"/>
       <c r="E61" s="56"/>
@@ -48565,13 +48562,13 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B62">
         <v>370402</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D62" s="55">
         <f>$Q$13</f>
@@ -48630,13 +48627,13 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B63">
         <v>370103</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D63" s="55">
         <f>$Q$13</f>
@@ -48695,13 +48692,13 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B64">
         <v>280100</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D64" s="55"/>
       <c r="E64" s="56"/>
@@ -48748,13 +48745,13 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B65">
         <v>280200</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D65" s="58"/>
       <c r="E65" s="59"/>
